--- a/Code/Results/Cases/Case_6_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_26/res_line/pl_mw.xlsx
@@ -427,16 +427,16 @@
         <v>0.7741550616715642</v>
       </c>
       <c r="D2">
-        <v>0.01474093857668279</v>
+        <v>0.01474093857656911</v>
       </c>
       <c r="E2">
-        <v>0.01566475486680474</v>
+        <v>0.01566475486680347</v>
       </c>
       <c r="F2">
-        <v>3.345928447186935</v>
+        <v>3.345928447186907</v>
       </c>
       <c r="G2">
-        <v>0.0008338732958657781</v>
+        <v>0.0008338732958022789</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05551379441160975</v>
+        <v>0.05551379441161508</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3216946306898194</v>
+        <v>0.3216946306896915</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.535298551548252</v>
+        <v>1.535298551548223</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.474645401192049</v>
+        <v>4.474645401191992</v>
       </c>
       <c r="C3">
-        <v>0.667197989985624</v>
+        <v>0.6671979899855955</v>
       </c>
       <c r="D3">
-        <v>0.01258900595382428</v>
+        <v>0.01258900595381007</v>
       </c>
       <c r="E3">
-        <v>0.01562466118823141</v>
+        <v>0.01562466118819444</v>
       </c>
       <c r="F3">
-        <v>3.120068408033447</v>
+        <v>3.120068408033433</v>
       </c>
       <c r="G3">
-        <v>0.0008445521020745901</v>
+        <v>0.0008445521019510078</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05636032897212928</v>
+        <v>0.05636032897203513</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2896035031860009</v>
+        <v>0.2896035031860293</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.580526379460323</v>
+        <v>1.580526379460309</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.115543190033009</v>
+        <v>4.115543190032895</v>
       </c>
       <c r="C4">
-        <v>0.6028837274062937</v>
+        <v>0.6028837274060379</v>
       </c>
       <c r="D4">
-        <v>0.01134171799636619</v>
+        <v>0.01134171799649053</v>
       </c>
       <c r="E4">
-        <v>0.01560701111721546</v>
+        <v>0.01560701111722085</v>
       </c>
       <c r="F4">
-        <v>2.988641302789972</v>
+        <v>2.988641302790001</v>
       </c>
       <c r="G4">
-        <v>0.0008512705921166703</v>
+        <v>0.0008512705921177198</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05693600219054318</v>
+        <v>0.05693600219050055</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.270456125824154</v>
+        <v>0.2704561258242393</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.610496600103076</v>
+        <v>1.610496600103005</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.971240711903249</v>
+        <v>3.971240711903192</v>
       </c>
       <c r="C5">
-        <v>0.5769677100419983</v>
+        <v>0.5769677100420267</v>
       </c>
       <c r="D5">
-        <v>0.01084940592263806</v>
+        <v>0.01084940592286188</v>
       </c>
       <c r="E5">
-        <v>0.01560144058870183</v>
+        <v>0.01560144058870017</v>
       </c>
       <c r="F5">
-        <v>2.936738298329729</v>
+        <v>2.936738298329757</v>
       </c>
       <c r="G5">
-        <v>0.0008540515856889864</v>
+        <v>0.0008540515858075698</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05718419097971683</v>
+        <v>0.057184190979779</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2627790534465362</v>
+        <v>0.2627790534465504</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.62323305468432</v>
+        <v>1.623233054684363</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.947394858490213</v>
+        <v>3.947394858490441</v>
       </c>
       <c r="C6">
-        <v>0.5726807060605097</v>
+        <v>0.5726807060604528</v>
       </c>
       <c r="D6">
-        <v>0.01076855032949808</v>
+        <v>0.01076855032950519</v>
       </c>
       <c r="E6">
-        <v>0.01560061008238933</v>
+        <v>0.0156006100823618</v>
       </c>
       <c r="F6">
         <v>2.928215140181635</v>
       </c>
       <c r="G6">
-        <v>0.0008545160430901748</v>
+        <v>0.0008545160432051362</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0572262111673556</v>
+        <v>0.05722621116742133</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2615114757748529</v>
+        <v>0.261511475774995</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.625378722782074</v>
+        <v>1.625378722782088</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.113589177113283</v>
+        <v>4.113589177113113</v>
       </c>
       <c r="C7">
-        <v>0.6025330914924325</v>
+        <v>0.6025330914922336</v>
       </c>
       <c r="D7">
-        <v>0.01133501713901097</v>
+        <v>0.01133501713912111</v>
       </c>
       <c r="E7">
-        <v>0.01560692958340182</v>
+        <v>0.01560692958342819</v>
       </c>
       <c r="F7">
-        <v>2.987934832953442</v>
+        <v>2.987934832953414</v>
       </c>
       <c r="G7">
-        <v>0.0008513079195799911</v>
+        <v>0.0008513079196386986</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05693929487166116</v>
+        <v>0.05693929487165761</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.27035209941387</v>
+        <v>0.270352099413941</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.610666286765607</v>
+        <v>1.610666286765536</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.865548814572321</v>
+        <v>4.865548814572264</v>
       </c>
       <c r="C8">
         <v>0.7369634673194412</v>
       </c>
       <c r="D8">
-        <v>0.01398190985259617</v>
+        <v>0.01398190985283421</v>
       </c>
       <c r="E8">
-        <v>0.01564940068645482</v>
+        <v>0.01564940068645787</v>
       </c>
       <c r="F8">
         <v>3.266439839276529</v>
       </c>
       <c r="G8">
-        <v>0.0008375233763543872</v>
+        <v>0.0008375233764169275</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05579378831739135</v>
+        <v>0.05579378831726522</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.550417528200228</v>
+        <v>1.550417528200214</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.426646572565119</v>
+        <v>6.426646572565062</v>
       </c>
       <c r="C9">
-        <v>1.013851902999704</v>
+        <v>1.013851902999477</v>
       </c>
       <c r="D9">
-        <v>0.01989594866241973</v>
+        <v>0.01989594866253341</v>
       </c>
       <c r="E9">
-        <v>0.01579487569965005</v>
+        <v>0.01579487569969706</v>
       </c>
       <c r="F9">
-        <v>3.878721308459575</v>
+        <v>3.878721308459603</v>
       </c>
       <c r="G9">
-        <v>0.000811647989339906</v>
+        <v>0.0008116479894033499</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05401412883674972</v>
+        <v>0.05401412883673729</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3943927817030612</v>
+        <v>0.3943927817030897</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.451245998763298</v>
+        <v>1.451245998763312</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.648376784662844</v>
+        <v>7.648376784662901</v>
       </c>
       <c r="C10">
-        <v>1.229384854531702</v>
+        <v>1.229384854532043</v>
       </c>
       <c r="D10">
-        <v>0.02490383586364686</v>
+        <v>0.02490383586380318</v>
       </c>
       <c r="E10">
-        <v>0.01595127496203108</v>
+        <v>0.01595127496203097</v>
       </c>
       <c r="F10">
-        <v>4.382624748006009</v>
+        <v>4.382624748005981</v>
       </c>
       <c r="G10">
-        <v>0.0007931408474295409</v>
+        <v>0.0007931408475057576</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05302785675835864</v>
+        <v>0.05302785675858956</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4603327734899239</v>
+        <v>0.4603327734899949</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.392383641222168</v>
+        <v>1.392383641222125</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.22629631029497</v>
+        <v>8.226296310294856</v>
       </c>
       <c r="C11">
-        <v>1.331140849417636</v>
+        <v>1.331140849417693</v>
       </c>
       <c r="D11">
         <v>0.02738673845135509</v>
       </c>
       <c r="E11">
-        <v>0.01603648784954081</v>
+        <v>0.01603648784953954</v>
       </c>
       <c r="F11">
         <v>4.627271486618213</v>
       </c>
       <c r="G11">
-        <v>0.0007847775633812564</v>
+        <v>0.0007847775634381993</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05265868541536634</v>
+        <v>0.05265868541543739</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.491577297628254</v>
+        <v>0.4915772976283108</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.36929905742484</v>
+        <v>1.369299057424783</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.448908871211415</v>
+        <v>8.448908871211188</v>
       </c>
       <c r="C12">
-        <v>1.370314093724858</v>
+        <v>1.370314093724517</v>
       </c>
       <c r="D12">
-        <v>0.02836259645162187</v>
+        <v>0.02836259645169292</v>
       </c>
       <c r="E12">
-        <v>0.01607112719799114</v>
+        <v>0.01607112719799164</v>
       </c>
       <c r="F12">
         <v>4.722495674861449</v>
       </c>
       <c r="G12">
-        <v>0.0007816133591667054</v>
+        <v>0.0007816133590885224</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05253129132854895</v>
+        <v>0.05253129132834999</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5036191442259081</v>
+        <v>0.5036191442257518</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.361154348140332</v>
+        <v>1.361154348140275</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>8.400787445210767</v>
       </c>
       <c r="C13">
-        <v>1.361847051291249</v>
+        <v>1.361847051291306</v>
       </c>
       <c r="D13">
-        <v>0.02815073231455045</v>
+        <v>0.02815073231472809</v>
       </c>
       <c r="E13">
-        <v>0.01606355520642672</v>
+        <v>0.01606355520639685</v>
       </c>
       <c r="F13">
         <v>4.701866167883111</v>
       </c>
       <c r="G13">
-        <v>0.000782294795155937</v>
+        <v>0.0007822947952175048</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05255815915325712</v>
+        <v>0.05255815915311146</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5010158242368732</v>
+        <v>0.5010158242369016</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.362880738773271</v>
+        <v>1.362880738773299</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.244531611734828</v>
+        <v>8.244531611735169</v>
       </c>
       <c r="C14">
-        <v>1.33435014265001</v>
+        <v>1.334350142650521</v>
       </c>
       <c r="D14">
-        <v>0.02746626919717698</v>
+        <v>0.02746626919744699</v>
       </c>
       <c r="E14">
-        <v>0.01603928787445691</v>
+        <v>0.01603928787443482</v>
       </c>
       <c r="F14">
-        <v>4.635051594057899</v>
+        <v>4.635051594057927</v>
       </c>
       <c r="G14">
-        <v>0.0007845172193328092</v>
+        <v>0.0007845172193398958</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05264794993287936</v>
+        <v>0.05264794993268751</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4925635805838766</v>
+        <v>0.4925635805837629</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.368616606681201</v>
+        <v>1.368616606681329</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.149329854858593</v>
+        <v>8.14932985485882</v>
       </c>
       <c r="C15">
-        <v>1.317594381119022</v>
+        <v>1.317594381118681</v>
       </c>
       <c r="D15">
-        <v>0.02705185947261413</v>
+        <v>0.02705185947253597</v>
       </c>
       <c r="E15">
-        <v>0.01602474378861501</v>
+        <v>0.01602474378861324</v>
       </c>
       <c r="F15">
-        <v>4.594473793790371</v>
+        <v>4.594473793790399</v>
       </c>
       <c r="G15">
-        <v>0.0007858787125703396</v>
+        <v>0.0007858787125689738</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05270459609238642</v>
+        <v>0.0527045960924859</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4874147112498122</v>
+        <v>0.4874147112498406</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.372209874002678</v>
+        <v>1.372209874002664</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.611101741504115</v>
+        <v>7.611101741504228</v>
       </c>
       <c r="C16">
-        <v>1.222818257893607</v>
+        <v>1.222818257893323</v>
       </c>
       <c r="D16">
-        <v>0.02474619751516371</v>
+        <v>0.02474619751538398</v>
       </c>
       <c r="E16">
-        <v>0.01594601733691803</v>
+        <v>0.01594601733698869</v>
       </c>
       <c r="F16">
-        <v>4.366976626883172</v>
+        <v>4.366976626883144</v>
       </c>
       <c r="G16">
-        <v>0.0007936881009067096</v>
+        <v>0.0007936881007710265</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05305366227102226</v>
+        <v>0.05305366227110753</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4583185046941054</v>
+        <v>0.4583185046942191</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.393971967618285</v>
+        <v>1.393971967618256</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.286974919505326</v>
+        <v>7.286974919505155</v>
       </c>
       <c r="C17">
-        <v>1.16569702234483</v>
+        <v>1.165697022344489</v>
       </c>
       <c r="D17">
-        <v>0.02338826929452864</v>
+        <v>0.02338826929417337</v>
       </c>
       <c r="E17">
-        <v>0.01590155031130336</v>
+        <v>0.01590155031131152</v>
       </c>
       <c r="F17">
-        <v>4.231605236779018</v>
+        <v>4.231605236778961</v>
       </c>
       <c r="G17">
-        <v>0.0007984897089367501</v>
+        <v>0.0007984897090143769</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0532888084910681</v>
+        <v>0.05328880849092421</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.440808993161852</v>
+        <v>0.4408089931616956</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.408311634000754</v>
+        <v>1.408311634000711</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.102590651366768</v>
+        <v>7.10259065136654</v>
       </c>
       <c r="C18">
-        <v>1.133184159035864</v>
+        <v>1.133184159035295</v>
       </c>
       <c r="D18">
-        <v>0.02262607199464028</v>
+        <v>0.02262607199499911</v>
       </c>
       <c r="E18">
-        <v>0.01587727345399942</v>
+        <v>0.01587727345398632</v>
       </c>
       <c r="F18">
-        <v>4.155169518223403</v>
+        <v>4.155169518223374</v>
       </c>
       <c r="G18">
-        <v>0.0008012570664472994</v>
+        <v>0.0008012570663708149</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05343147396615677</v>
+        <v>0.05343147396620473</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4308533610717831</v>
+        <v>0.430853361071641</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.416902431354316</v>
+        <v>1.416902431354345</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.040496251485251</v>
+        <v>7.040496251485195</v>
       </c>
       <c r="C19">
-        <v>1.122231573127294</v>
+        <v>1.122231573127351</v>
       </c>
       <c r="D19">
-        <v>0.02237107091388069</v>
+        <v>0.02237107091387713</v>
       </c>
       <c r="E19">
-        <v>0.0158692674012858</v>
+        <v>0.01586926740128225</v>
       </c>
       <c r="F19">
-        <v>4.12952448278233</v>
+        <v>4.129524482782301</v>
       </c>
       <c r="G19">
-        <v>0.000802195154026248</v>
+        <v>0.000802195153950942</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05348102441579172</v>
+        <v>0.05348102441582725</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4275015108695754</v>
+        <v>0.427501510869547</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.419868198739664</v>
+        <v>1.419868198739678</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.321263207935488</v>
+        <v>7.32126320793526</v>
       </c>
       <c r="C20">
-        <v>1.171741583639744</v>
+        <v>1.171741583639971</v>
       </c>
       <c r="D20">
-        <v>0.02353083110162402</v>
+        <v>0.02353083110138243</v>
       </c>
       <c r="E20">
-        <v>0.01590614711808552</v>
+        <v>0.01590614711808241</v>
       </c>
       <c r="F20">
-        <v>4.245865675409931</v>
+        <v>4.245865675409988</v>
       </c>
       <c r="G20">
-        <v>0.0007979780253356126</v>
+        <v>0.0007979780252029147</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05326300271493878</v>
+        <v>0.05326300271500628</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.442660762114059</v>
+        <v>0.4426607621141869</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.406749208774144</v>
+        <v>1.40674920877413</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.290320392810486</v>
+        <v>8.290320392810827</v>
       </c>
       <c r="C21">
-        <v>1.342408326675468</v>
+        <v>1.342408326675979</v>
       </c>
       <c r="D21">
-        <v>0.02766629051252067</v>
+        <v>0.02766629051191671</v>
       </c>
       <c r="E21">
-        <v>0.01604634828916751</v>
+        <v>0.01604634828917162</v>
       </c>
       <c r="F21">
-        <v>4.654603382890514</v>
+        <v>4.654603382890485</v>
       </c>
       <c r="G21">
-        <v>0.0007838644095854619</v>
+        <v>0.0007838644095305991</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05262123107383943</v>
+        <v>0.05262123107379324</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4950402342983722</v>
+        <v>0.4950402342982017</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.366915062065104</v>
+        <v>1.366915062065132</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.945954489898099</v>
+        <v>8.945954489897986</v>
       </c>
       <c r="C22">
-        <v>1.457745371527267</v>
+        <v>1.45774537152721</v>
       </c>
       <c r="D22">
-        <v>0.03058050584660066</v>
+        <v>0.03058050584645144</v>
       </c>
       <c r="E22">
-        <v>0.01615201606030103</v>
+        <v>0.01615201606030264</v>
       </c>
       <c r="F22">
         <v>4.937000369888324</v>
       </c>
       <c r="G22">
-        <v>0.0007746535477916204</v>
+        <v>0.0007746535479301583</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05227465893129235</v>
+        <v>0.05227465893134564</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5305166396843788</v>
+        <v>0.5305166396844214</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.593771786722868</v>
+        <v>8.593771786722641</v>
       </c>
       <c r="C23">
         <v>1.395800180692845</v>
       </c>
       <c r="D23">
-        <v>0.02900343428368757</v>
+        <v>0.02900343428347441</v>
       </c>
       <c r="E23">
-        <v>0.01609419966313447</v>
+        <v>0.01609419966303005</v>
       </c>
       <c r="F23">
-        <v>4.784746516564212</v>
+        <v>4.784746516564155</v>
       </c>
       <c r="G23">
-        <v>0.0007795703019798914</v>
+        <v>0.0007795703019032034</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05245260108842231</v>
+        <v>0.05245260108832994</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5114569370097399</v>
+        <v>0.5114569370095694</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.356069748763176</v>
+        <v>1.356069748763133</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.305755408742357</v>
+        <v>7.3057554087423</v>
       </c>
       <c r="C24">
-        <v>1.169007827114683</v>
+        <v>1.169007827114285</v>
       </c>
       <c r="D24">
-        <v>0.02346632175668617</v>
+        <v>0.02346632175643037</v>
       </c>
       <c r="E24">
-        <v>0.01590406491564395</v>
+        <v>0.01590406491555518</v>
       </c>
       <c r="F24">
-        <v>4.239414224917653</v>
+        <v>4.239414224917596</v>
       </c>
       <c r="G24">
-        <v>0.0007982093357130523</v>
+        <v>0.0007982093357202175</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05327464628928702</v>
+        <v>0.05327464628947887</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4418232344483926</v>
+        <v>0.4418232344484778</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.407454506082388</v>
+        <v>1.407454506082431</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.992968517420195</v>
+        <v>5.992968517420138</v>
       </c>
       <c r="C25">
-        <v>0.9371445507978819</v>
+        <v>0.9371445507978535</v>
       </c>
       <c r="D25">
-        <v>0.01819771903188894</v>
+        <v>0.01819771903187828</v>
       </c>
       <c r="E25">
-        <v>0.01574778941804672</v>
+        <v>0.01574778941801253</v>
       </c>
       <c r="F25">
-        <v>3.704695788940427</v>
+        <v>3.704695788940398</v>
       </c>
       <c r="G25">
-        <v>0.0008185434248347519</v>
+        <v>0.0008185434248315637</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05444211172192226</v>
+        <v>0.05444211172189561</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3710364463010478</v>
+        <v>0.3710364463009057</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.475812637370083</v>
+        <v>1.475812637370126</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_26/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.074427279399856</v>
+        <v>2.975300341698812</v>
       </c>
       <c r="C2">
-        <v>0.7741550616715642</v>
+        <v>0.520116164070032</v>
       </c>
       <c r="D2">
-        <v>0.01474093857656911</v>
+        <v>0.02903995679489313</v>
       </c>
       <c r="E2">
-        <v>0.01566475486680347</v>
+        <v>0.03253230765422366</v>
       </c>
       <c r="F2">
-        <v>3.345928447186907</v>
+        <v>1.219338296618957</v>
       </c>
       <c r="G2">
-        <v>0.0008338732958022789</v>
+        <v>1.00911105725298</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.002158130175536233</v>
       </c>
       <c r="J2">
-        <v>0.05551379441161508</v>
+        <v>0.6678800157431652</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5997011272667265</v>
       </c>
       <c r="L2">
-        <v>0.3216946306896915</v>
+        <v>0.04785681435195244</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.535298551548223</v>
+        <v>0.3226566824508268</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.8529663588526013</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.474645401191992</v>
+        <v>2.599054809445192</v>
       </c>
       <c r="C3">
-        <v>0.6671979899855955</v>
+        <v>0.4521895488641405</v>
       </c>
       <c r="D3">
-        <v>0.01258900595381007</v>
+        <v>0.02749478314284204</v>
       </c>
       <c r="E3">
-        <v>0.01562466118819444</v>
+        <v>0.03247181000481447</v>
       </c>
       <c r="F3">
-        <v>3.120068408033433</v>
+        <v>1.152014176410162</v>
       </c>
       <c r="G3">
-        <v>0.0008445521019510078</v>
+        <v>0.9423119725701099</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.004174743124354841</v>
       </c>
       <c r="J3">
-        <v>0.05636032897203513</v>
+        <v>0.6431357591790459</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5852174814612354</v>
       </c>
       <c r="L3">
-        <v>0.2896035031860293</v>
+        <v>0.04862793769135365</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.580526379460309</v>
+        <v>0.2892215488314633</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.8870417311910117</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.115543190032895</v>
+        <v>2.368169194404061</v>
       </c>
       <c r="C4">
-        <v>0.6028837274060379</v>
+        <v>0.4108511611157439</v>
       </c>
       <c r="D4">
-        <v>0.01134171799649053</v>
+        <v>0.02657521248755756</v>
       </c>
       <c r="E4">
-        <v>0.01560701111722085</v>
+        <v>0.03245442887770444</v>
       </c>
       <c r="F4">
-        <v>2.988641302790001</v>
+        <v>1.112061991649938</v>
       </c>
       <c r="G4">
-        <v>0.0008512705921177198</v>
+        <v>0.9024982856193304</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.00589058541466736</v>
       </c>
       <c r="J4">
-        <v>0.05693600219050055</v>
+        <v>0.6286685522923818</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5769409706893214</v>
       </c>
       <c r="L4">
-        <v>0.2704561258242393</v>
+        <v>0.04912180115283693</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.610496600103005</v>
+        <v>0.2690591253833077</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.9088714322608773</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.971240711903192</v>
+        <v>2.272600073218484</v>
       </c>
       <c r="C5">
-        <v>0.5769677100420267</v>
+        <v>0.3945146096855012</v>
       </c>
       <c r="D5">
-        <v>0.01084940592286188</v>
+        <v>0.02623423274026493</v>
       </c>
       <c r="E5">
-        <v>0.01560144058870017</v>
+        <v>0.03244694012978133</v>
       </c>
       <c r="F5">
-        <v>2.936738298329757</v>
+        <v>1.095210198905804</v>
       </c>
       <c r="G5">
-        <v>0.0008540515858075698</v>
+        <v>0.8856210149908748</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.006786057715965743</v>
       </c>
       <c r="J5">
-        <v>0.057184190979779</v>
+        <v>0.6224755023548028</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5731122566477467</v>
       </c>
       <c r="L5">
-        <v>0.2627790534465504</v>
+        <v>0.04931125610124454</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.623233054684363</v>
+        <v>0.261081800918916</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.9180993067976537</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.947394858490441</v>
+        <v>2.254910699583718</v>
       </c>
       <c r="C6">
-        <v>0.5726807060604528</v>
+        <v>0.3923319354177579</v>
       </c>
       <c r="D6">
-        <v>0.01076855032950519</v>
+        <v>0.02621068461696296</v>
       </c>
       <c r="E6">
-        <v>0.0156006100823618</v>
+        <v>0.03243951774739084</v>
       </c>
       <c r="F6">
-        <v>2.928215140181635</v>
+        <v>1.091333919415504</v>
       </c>
       <c r="G6">
-        <v>0.0008545160432051362</v>
+        <v>0.8816943601195391</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.007049445375947982</v>
       </c>
       <c r="J6">
-        <v>0.05722621116742133</v>
+        <v>0.6208825964696274</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5717489779433862</v>
       </c>
       <c r="L6">
-        <v>0.261511475774995</v>
+        <v>0.04932244044371004</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.625378722782088</v>
+        <v>0.2599495004385801</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.9197823173838273</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.113589177113113</v>
+        <v>2.361889179907621</v>
       </c>
       <c r="C7">
-        <v>0.6025330914922336</v>
+        <v>0.4120693509029252</v>
       </c>
       <c r="D7">
-        <v>0.01133501713912111</v>
+        <v>0.02665966832977773</v>
       </c>
       <c r="E7">
-        <v>0.01560692958342819</v>
+        <v>0.03243665960606545</v>
       </c>
       <c r="F7">
-        <v>2.987934832953414</v>
+        <v>1.108832928567153</v>
       </c>
       <c r="G7">
-        <v>0.0008513079196386986</v>
+        <v>0.8991494643405957</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.006178357950465063</v>
       </c>
       <c r="J7">
-        <v>0.05693929487165761</v>
+        <v>0.6270134061394828</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5748766931700899</v>
       </c>
       <c r="L7">
-        <v>0.270352099413941</v>
+        <v>0.049068386615569</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.610666286765536</v>
+        <v>0.269463036156921</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.9093870562419113</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.865548814572264</v>
+        <v>2.838832289799541</v>
       </c>
       <c r="C8">
-        <v>0.7369634673194412</v>
+        <v>0.4985322294566288</v>
       </c>
       <c r="D8">
-        <v>0.01398190985283421</v>
+        <v>0.02861881366167651</v>
       </c>
       <c r="E8">
-        <v>0.01564940068645787</v>
+        <v>0.03248403218584528</v>
       </c>
       <c r="F8">
-        <v>3.266439839276529</v>
+        <v>1.191836935243288</v>
       </c>
       <c r="G8">
-        <v>0.0008375233764169275</v>
+        <v>0.9816663610520067</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.003071188586641682</v>
       </c>
       <c r="J8">
-        <v>0.05579378831726522</v>
+        <v>0.657107284105777</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5919074371604012</v>
       </c>
       <c r="L8">
-        <v>0.310504980601209</v>
+        <v>0.04804565251973614</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.550417528200214</v>
+        <v>0.3117273049145126</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.8651175043147319</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.426646572565062</v>
+        <v>3.785620907975897</v>
       </c>
       <c r="C9">
-        <v>1.013851902999477</v>
+        <v>0.6690079563747418</v>
       </c>
       <c r="D9">
-        <v>0.01989594866253341</v>
+        <v>0.03254359829580267</v>
       </c>
       <c r="E9">
-        <v>0.01579487569969706</v>
+        <v>0.0327693719965465</v>
       </c>
       <c r="F9">
-        <v>3.878721308459603</v>
+        <v>1.372075465573189</v>
       </c>
       <c r="G9">
-        <v>0.0008116479894033499</v>
+        <v>1.15971876387384</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0006669621327572983</v>
       </c>
       <c r="J9">
-        <v>0.05401412883673729</v>
+        <v>0.72519469921275</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6342269166536738</v>
       </c>
       <c r="L9">
-        <v>0.3943927817030897</v>
+        <v>0.04630240806660701</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.451245998763312</v>
+        <v>0.396898078399758</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.7849773166441061</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.648376784662901</v>
+        <v>4.482241631418788</v>
       </c>
       <c r="C10">
-        <v>1.229384854532043</v>
+        <v>0.798048865631614</v>
       </c>
       <c r="D10">
-        <v>0.02490383586380318</v>
+        <v>0.03563540974318968</v>
       </c>
       <c r="E10">
-        <v>0.01595127496203097</v>
+        <v>0.03307487207764037</v>
       </c>
       <c r="F10">
-        <v>4.382624748005981</v>
+        <v>1.511963535828627</v>
       </c>
       <c r="G10">
-        <v>0.0007931408475057576</v>
+        <v>1.297061498139215</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001955008161324656</v>
       </c>
       <c r="J10">
-        <v>0.05302785675858956</v>
+        <v>0.7789852321267858</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.6681899531232673</v>
       </c>
       <c r="L10">
-        <v>0.4603327734899949</v>
+        <v>0.04509967676842219</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.392383641222125</v>
+        <v>0.4621339148286836</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.7314201469122459</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.226296310294856</v>
+        <v>4.791819594916888</v>
       </c>
       <c r="C11">
-        <v>1.331140849417693</v>
+        <v>0.8600776469820914</v>
       </c>
       <c r="D11">
-        <v>0.02738673845135509</v>
+        <v>0.03722821137455412</v>
       </c>
       <c r="E11">
-        <v>0.01603648784953954</v>
+        <v>0.03320945971522171</v>
       </c>
       <c r="F11">
-        <v>4.627271486618213</v>
+        <v>1.572937948735841</v>
       </c>
       <c r="G11">
-        <v>0.0007847775634381993</v>
+        <v>1.35647825864703</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.003637664480258707</v>
       </c>
       <c r="J11">
-        <v>0.05265868541543739</v>
+        <v>0.8020209573597015</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.6813209232559245</v>
       </c>
       <c r="L11">
-        <v>0.4915772976283108</v>
+        <v>0.04449060339716127</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.369299057424783</v>
+        <v>0.4932874701154901</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.7092728838219529</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.448908871211188</v>
+        <v>4.913838734446529</v>
       </c>
       <c r="C12">
-        <v>1.370314093724517</v>
+        <v>0.8824209059719124</v>
       </c>
       <c r="D12">
-        <v>0.02836259645169292</v>
+        <v>0.0377595394270358</v>
       </c>
       <c r="E12">
-        <v>0.01607112719799164</v>
+        <v>0.03327927012831111</v>
       </c>
       <c r="F12">
-        <v>4.722495674861449</v>
+        <v>1.599050588112448</v>
       </c>
       <c r="G12">
-        <v>0.0007816133590885224</v>
+        <v>1.382086262586398</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.004200025432811394</v>
       </c>
       <c r="J12">
-        <v>0.05253129132834999</v>
+        <v>0.8123085201079334</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.6882088945660243</v>
       </c>
       <c r="L12">
-        <v>0.5036191442257518</v>
+        <v>0.04430926685840575</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.361154348140275</v>
+        <v>0.5047354157105701</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.7005548321936814</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.400787445210767</v>
+        <v>4.888469971028485</v>
       </c>
       <c r="C13">
-        <v>1.361847051291306</v>
+        <v>0.877341019980804</v>
       </c>
       <c r="D13">
-        <v>0.02815073231472809</v>
+        <v>0.03762912815183483</v>
       </c>
       <c r="E13">
-        <v>0.01606355520639685</v>
+        <v>0.03326713506199042</v>
       </c>
       <c r="F13">
-        <v>4.701866167883111</v>
+        <v>1.593944188516787</v>
       </c>
       <c r="G13">
-        <v>0.0007822947952175048</v>
+        <v>1.377112303352021</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.004033227377682636</v>
       </c>
       <c r="J13">
-        <v>0.05255815915311146</v>
+        <v>0.8103625575091087</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.6870722622781784</v>
       </c>
       <c r="L13">
-        <v>0.5010158242369016</v>
+        <v>0.04435732107635992</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.362880738773299</v>
+        <v>0.5021747394426797</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.7023167229908154</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.244531611735169</v>
+        <v>4.80224409140493</v>
       </c>
       <c r="C14">
-        <v>1.334350142650521</v>
+        <v>0.861801954593858</v>
       </c>
       <c r="D14">
-        <v>0.02746626919744699</v>
+        <v>0.03726512802288795</v>
       </c>
       <c r="E14">
-        <v>0.01603928787443482</v>
+        <v>0.03321643083198023</v>
       </c>
       <c r="F14">
-        <v>4.635051594057927</v>
+        <v>1.575305510477776</v>
       </c>
       <c r="G14">
-        <v>0.0007845172193398958</v>
+        <v>1.358814402726864</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.003663996067693631</v>
       </c>
       <c r="J14">
-        <v>0.05264794993268751</v>
+        <v>0.802981609020577</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.6820346816297587</v>
       </c>
       <c r="L14">
-        <v>0.4925635805837629</v>
+        <v>0.04447950655008803</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.368616606681329</v>
+        <v>0.4941887715265523</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.7085065659865606</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.14932985485882</v>
+        <v>4.747650971765722</v>
       </c>
       <c r="C15">
-        <v>1.317594381118681</v>
+        <v>0.8528171130344901</v>
       </c>
       <c r="D15">
-        <v>0.02705185947253597</v>
+        <v>0.03707390993486825</v>
       </c>
       <c r="E15">
-        <v>0.01602474378861324</v>
+        <v>0.03317981840891182</v>
       </c>
       <c r="F15">
-        <v>4.594473793790399</v>
+        <v>1.562887315624351</v>
       </c>
       <c r="G15">
-        <v>0.0007858787125689738</v>
+        <v>1.346557293010477</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.003537880866354648</v>
       </c>
       <c r="J15">
-        <v>0.0527045960924859</v>
+        <v>0.7979381305418087</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.6782737368212679</v>
       </c>
       <c r="L15">
-        <v>0.4874147112498406</v>
+        <v>0.04453676406514706</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.372209874002664</v>
+        <v>0.4894887849311544</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.7125314826635325</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.611101741504228</v>
+        <v>4.446849729590554</v>
       </c>
       <c r="C16">
-        <v>1.222818257893323</v>
+        <v>0.7983295209277799</v>
       </c>
       <c r="D16">
-        <v>0.02474619751538398</v>
+        <v>0.03579235968202354</v>
       </c>
       <c r="E16">
-        <v>0.01594601733698869</v>
+        <v>0.03301575109150345</v>
       </c>
       <c r="F16">
-        <v>4.366976626883144</v>
+        <v>1.499181618504636</v>
       </c>
       <c r="G16">
-        <v>0.0007936881007710265</v>
+        <v>1.284005518735</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002531512555520088</v>
       </c>
       <c r="J16">
-        <v>0.05305366227110753</v>
+        <v>0.7728983493794317</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.6614845500152242</v>
       </c>
       <c r="L16">
-        <v>0.4583185046942191</v>
+        <v>0.04498697335405222</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.393971967618256</v>
+        <v>0.4616124094599741</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.73460447552619</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.286974919505155</v>
+        <v>4.262764734576592</v>
       </c>
       <c r="C17">
-        <v>1.165697022344489</v>
+        <v>0.7651229533772153</v>
       </c>
       <c r="D17">
-        <v>0.02338826929417337</v>
+        <v>0.03501545901110958</v>
       </c>
       <c r="E17">
-        <v>0.01590155031131152</v>
+        <v>0.0329216251246045</v>
       </c>
       <c r="F17">
-        <v>4.231605236778961</v>
+        <v>1.460766049853234</v>
       </c>
       <c r="G17">
-        <v>0.0007984897090143769</v>
+        <v>1.246252349193611</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002120115966596003</v>
       </c>
       <c r="J17">
-        <v>0.05328880849092421</v>
+        <v>0.757869144740738</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.6514765518882228</v>
       </c>
       <c r="L17">
-        <v>0.4408089931616956</v>
+        <v>0.04526986168516078</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.408311634000711</v>
+        <v>0.4446726791369429</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.7484460382012692</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.10259065136654</v>
+        <v>4.161605499824191</v>
       </c>
       <c r="C18">
-        <v>1.133184159035295</v>
+        <v>0.7447927324896852</v>
       </c>
       <c r="D18">
-        <v>0.02262607199499911</v>
+        <v>0.03449291045185632</v>
       </c>
       <c r="E18">
-        <v>0.01587727345398632</v>
+        <v>0.03288522353796086</v>
       </c>
       <c r="F18">
-        <v>4.155169518223374</v>
+        <v>1.441573058203616</v>
       </c>
       <c r="G18">
-        <v>0.0008012570663708149</v>
+        <v>1.227534329459218</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001710328249229676</v>
       </c>
       <c r="J18">
-        <v>0.05343147396620473</v>
+        <v>0.7507318209216294</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.64759279227669</v>
       </c>
       <c r="L18">
-        <v>0.430853361071641</v>
+        <v>0.04548127171782479</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.416902431354345</v>
+        <v>0.4345310228413126</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.7560040578252547</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.040496251485195</v>
+        <v>4.123850455712784</v>
       </c>
       <c r="C19">
-        <v>1.122231573127351</v>
+        <v>0.7389285140083075</v>
       </c>
       <c r="D19">
-        <v>0.02237107091387713</v>
+        <v>0.034377466188797</v>
       </c>
       <c r="E19">
-        <v>0.01586926740128225</v>
+        <v>0.03286143017716903</v>
       </c>
       <c r="F19">
-        <v>4.129524482782301</v>
+        <v>1.433053939424795</v>
       </c>
       <c r="G19">
-        <v>0.000802195153950942</v>
+        <v>1.219087504690862</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.0017696329058845</v>
       </c>
       <c r="J19">
-        <v>0.05348102441582725</v>
+        <v>0.7472619861244993</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.644929139865738</v>
       </c>
       <c r="L19">
-        <v>0.427501510869547</v>
+        <v>0.04551756023281328</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.419868198739678</v>
+        <v>0.4314574081480771</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.7589752678013006</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.32126320793526</v>
+        <v>4.282704712543477</v>
       </c>
       <c r="C20">
-        <v>1.171741583639971</v>
+        <v>0.7685473739869053</v>
       </c>
       <c r="D20">
-        <v>0.02353083110138243</v>
+        <v>0.03509161138589434</v>
       </c>
       <c r="E20">
-        <v>0.01590614711808241</v>
+        <v>0.03293260810247745</v>
       </c>
       <c r="F20">
-        <v>4.245865675409988</v>
+        <v>1.465040724654429</v>
       </c>
       <c r="G20">
-        <v>0.0007979780252029147</v>
+        <v>1.250466965278008</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.00213694301359979</v>
       </c>
       <c r="J20">
-        <v>0.05326300271500628</v>
+        <v>0.7595660183200437</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.6526701516569204</v>
       </c>
       <c r="L20">
-        <v>0.4426607621141869</v>
+        <v>0.04524311823852134</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.40674920877413</v>
+        <v>0.4464343288700405</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.7469207477907318</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.290320392810827</v>
+        <v>4.822400601444372</v>
       </c>
       <c r="C21">
-        <v>1.342408326675979</v>
+        <v>0.8678264426744136</v>
       </c>
       <c r="D21">
-        <v>0.02766629051191671</v>
+        <v>0.03746004911941014</v>
       </c>
       <c r="E21">
-        <v>0.01604634828917162</v>
+        <v>0.03321404457189381</v>
       </c>
       <c r="F21">
-        <v>4.654603382890485</v>
+        <v>1.577773757940079</v>
       </c>
       <c r="G21">
-        <v>0.0007838644095305991</v>
+        <v>1.36105708721368</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.004008395619306881</v>
       </c>
       <c r="J21">
-        <v>0.05262123107379324</v>
+        <v>0.8035856478635708</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.6815263051663152</v>
       </c>
       <c r="L21">
-        <v>0.4950402342982017</v>
+        <v>0.04439222903476381</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.366915062065132</v>
+        <v>0.4970396703848508</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.7072864109550778</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.945954489897986</v>
+        <v>5.183339296260158</v>
       </c>
       <c r="C22">
-        <v>1.45774537152721</v>
+        <v>0.931647255058806</v>
       </c>
       <c r="D22">
-        <v>0.03058050584645144</v>
+        <v>0.03892761373156617</v>
       </c>
       <c r="E22">
-        <v>0.01615201606030264</v>
+        <v>0.03344174952839918</v>
       </c>
       <c r="F22">
-        <v>4.937000369888324</v>
+        <v>1.657584098148703</v>
       </c>
       <c r="G22">
-        <v>0.0007746535479301583</v>
+        <v>1.439479796318039</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.005635676786589272</v>
       </c>
       <c r="J22">
-        <v>0.05227465893134564</v>
+        <v>0.8354897277183113</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.703918781944239</v>
       </c>
       <c r="L22">
-        <v>0.5305166396844214</v>
+        <v>0.04392360419355512</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.344399522630141</v>
+        <v>0.5300344751970982</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.6816381653958778</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.593771786722641</v>
+        <v>4.996766190809183</v>
       </c>
       <c r="C23">
-        <v>1.395800180692845</v>
+        <v>0.8957401622677708</v>
       </c>
       <c r="D23">
-        <v>0.02900343428347441</v>
+        <v>0.03803516876016033</v>
       </c>
       <c r="E23">
-        <v>0.01609419966303005</v>
+        <v>0.03333886940325659</v>
       </c>
       <c r="F23">
-        <v>4.784746516564155</v>
+        <v>1.618377381972437</v>
       </c>
       <c r="G23">
-        <v>0.0007795703019032034</v>
+        <v>1.401179918492915</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.00442969355307099</v>
       </c>
       <c r="J23">
-        <v>0.05245260108832994</v>
+        <v>0.8202311034505101</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.6942636090980443</v>
       </c>
       <c r="L23">
-        <v>0.5114569370095694</v>
+        <v>0.04423349730770099</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.356069748763133</v>
+        <v>0.5117573256595591</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.6945008640696813</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.3057554087423</v>
+        <v>4.283389644793772</v>
       </c>
       <c r="C24">
-        <v>1.169007827114285</v>
+        <v>0.7642357356859861</v>
       </c>
       <c r="D24">
-        <v>0.02346632175643037</v>
+        <v>0.03489019612176136</v>
       </c>
       <c r="E24">
-        <v>0.01590406491555518</v>
+        <v>0.0329602025867537</v>
       </c>
       <c r="F24">
-        <v>4.239414224917596</v>
+        <v>1.468765750881786</v>
       </c>
       <c r="G24">
-        <v>0.0007982093357202175</v>
+        <v>1.254455515954874</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001652941850650791</v>
       </c>
       <c r="J24">
-        <v>0.05327464628947887</v>
+        <v>0.7617453325340193</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.6558832493573235</v>
       </c>
       <c r="L24">
-        <v>0.4418232344484778</v>
+        <v>0.04535324698503107</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.407454506082431</v>
+        <v>0.4446755694723237</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.7465250157840799</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.992968517420138</v>
+        <v>3.51972121479406</v>
       </c>
       <c r="C25">
-        <v>0.9371445507978535</v>
+        <v>0.6250804011663433</v>
       </c>
       <c r="D25">
-        <v>0.01819771903187828</v>
+        <v>0.03161579082989974</v>
       </c>
       <c r="E25">
-        <v>0.01574778941801253</v>
+        <v>0.03264263376039267</v>
       </c>
       <c r="F25">
-        <v>3.704695788940398</v>
+        <v>1.316389411925627</v>
       </c>
       <c r="G25">
-        <v>0.0008185434248315637</v>
+        <v>1.104551774499726</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001264202381431545</v>
       </c>
       <c r="J25">
-        <v>0.05444211172189561</v>
+        <v>0.7031767659782844</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6185010369500645</v>
       </c>
       <c r="L25">
-        <v>0.3710364463009057</v>
+        <v>0.04665886540255926</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.475812637370126</v>
+        <v>0.3744006845522705</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.8067540807717108</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_26/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.975300341698812</v>
+        <v>2.813038111774461</v>
       </c>
       <c r="C2">
-        <v>0.520116164070032</v>
+        <v>0.5608280529489775</v>
       </c>
       <c r="D2">
-        <v>0.02903995679489313</v>
+        <v>0.03249537427490878</v>
       </c>
       <c r="E2">
-        <v>0.03253230765422366</v>
+        <v>0.03109532826947436</v>
       </c>
       <c r="F2">
-        <v>1.219338296618957</v>
+        <v>1.105882034785751</v>
       </c>
       <c r="G2">
-        <v>1.00911105725298</v>
+        <v>0.8756613306115213</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.002158130175536233</v>
+        <v>0.001513021755059185</v>
       </c>
       <c r="J2">
-        <v>0.6678800157431652</v>
+        <v>0.639368644917738</v>
       </c>
       <c r="K2">
-        <v>0.5997011272667265</v>
+        <v>0.5168343419726042</v>
       </c>
       <c r="L2">
-        <v>0.04785681435195244</v>
+        <v>0.2387923479444254</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1547032607983212</v>
       </c>
       <c r="N2">
-        <v>0.3226566824508268</v>
+        <v>0.04368389604880818</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8529663588526013</v>
+        <v>0.3422844377883081</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.8457154473443218</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.599054809445192</v>
+        <v>2.462822768369506</v>
       </c>
       <c r="C3">
-        <v>0.4521895488641405</v>
+        <v>0.4849403597642663</v>
       </c>
       <c r="D3">
-        <v>0.02749478314284204</v>
+        <v>0.03063665851408359</v>
       </c>
       <c r="E3">
-        <v>0.03247181000481447</v>
+        <v>0.03112424634120803</v>
       </c>
       <c r="F3">
-        <v>1.152014176410162</v>
+        <v>1.049812961218933</v>
       </c>
       <c r="G3">
-        <v>0.9423119725701099</v>
+        <v>0.8236310863759968</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.004174743124354841</v>
+        <v>0.002846901473327001</v>
       </c>
       <c r="J3">
-        <v>0.6431357591790459</v>
+        <v>0.6147783333003503</v>
       </c>
       <c r="K3">
-        <v>0.5852174814612354</v>
+        <v>0.5086764284513023</v>
       </c>
       <c r="L3">
-        <v>0.04862793769135365</v>
+        <v>0.2407611079473142</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1475452718433168</v>
       </c>
       <c r="N3">
-        <v>0.2892215488314633</v>
+        <v>0.04445713262225137</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8870417311910117</v>
+        <v>0.3062592020235542</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.8704507067357774</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.368169194404061</v>
+        <v>2.247221563102471</v>
       </c>
       <c r="C4">
-        <v>0.4108511611157439</v>
+        <v>0.4388008519939604</v>
       </c>
       <c r="D4">
-        <v>0.02657521248755756</v>
+        <v>0.02953607463673436</v>
       </c>
       <c r="E4">
-        <v>0.03245442887770444</v>
+        <v>0.03116136149202386</v>
       </c>
       <c r="F4">
-        <v>1.112061991649938</v>
+        <v>1.0163472114439</v>
       </c>
       <c r="G4">
-        <v>0.9024982856193304</v>
+        <v>0.7927432832174048</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.00589058541466736</v>
+        <v>0.004031553026341061</v>
       </c>
       <c r="J4">
-        <v>0.6286685522923818</v>
+        <v>0.5998674601020326</v>
       </c>
       <c r="K4">
-        <v>0.5769409706893214</v>
+        <v>0.5040384579093455</v>
       </c>
       <c r="L4">
-        <v>0.04912180115283693</v>
+        <v>0.2418947968854965</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1440432196389878</v>
       </c>
       <c r="N4">
-        <v>0.2690591253833077</v>
+        <v>0.04494791513295571</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9088714322608773</v>
+        <v>0.2845290360440202</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.8865828612750768</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.272600073218484</v>
+        <v>2.157780264490157</v>
       </c>
       <c r="C5">
-        <v>0.3945146096855012</v>
+        <v>0.420544181035666</v>
       </c>
       <c r="D5">
-        <v>0.02623423274026493</v>
+        <v>0.02912579143661986</v>
       </c>
       <c r="E5">
-        <v>0.03244694012978133</v>
+        <v>0.03117642726955605</v>
       </c>
       <c r="F5">
-        <v>1.095210198905804</v>
+        <v>1.002095432451114</v>
       </c>
       <c r="G5">
-        <v>0.8856210149908748</v>
+        <v>0.7795465462620399</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.006786057715965743</v>
+        <v>0.004694622123571079</v>
       </c>
       <c r="J5">
-        <v>0.6224755023548028</v>
+        <v>0.5933811463888503</v>
       </c>
       <c r="K5">
-        <v>0.5731122566477467</v>
+        <v>0.5016954234175053</v>
       </c>
       <c r="L5">
-        <v>0.04931125610124454</v>
+        <v>0.2420883558045155</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1426783575703539</v>
       </c>
       <c r="N5">
-        <v>0.261081800918916</v>
+        <v>0.04513847772676671</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9180993067976537</v>
+        <v>0.2759194493053911</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.893572135912418</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.254910699583718</v>
+        <v>2.141177501661559</v>
       </c>
       <c r="C6">
-        <v>0.3923319354177579</v>
+        <v>0.4180612093452964</v>
       </c>
       <c r="D6">
-        <v>0.02621068461696296</v>
+        <v>0.02909286704792535</v>
       </c>
       <c r="E6">
-        <v>0.03243951774739084</v>
+        <v>0.03117327625389787</v>
       </c>
       <c r="F6">
-        <v>1.091333919415504</v>
+        <v>0.9987157546399459</v>
       </c>
       <c r="G6">
-        <v>0.8816943601195391</v>
+        <v>0.7763232589953475</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.007049445375947982</v>
+        <v>0.004932296851074547</v>
       </c>
       <c r="J6">
-        <v>0.6208825964696274</v>
+        <v>0.5917527296156919</v>
       </c>
       <c r="K6">
-        <v>0.5717489779433862</v>
+        <v>0.5006511964263858</v>
       </c>
       <c r="L6">
-        <v>0.04932244044371004</v>
+        <v>0.2418156671066498</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1422715826253942</v>
       </c>
       <c r="N6">
-        <v>0.2599495004385801</v>
+        <v>0.04515400366165601</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9197823173838273</v>
+        <v>0.2746832348313291</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.8949743460302919</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.361889179907621</v>
+        <v>2.239075507522159</v>
       </c>
       <c r="C7">
-        <v>0.4120693509029252</v>
+        <v>0.4389655306055715</v>
       </c>
       <c r="D7">
-        <v>0.02665966832977773</v>
+        <v>0.02973988125396687</v>
       </c>
       <c r="E7">
-        <v>0.03243665960606545</v>
+        <v>0.03117208995629728</v>
       </c>
       <c r="F7">
-        <v>1.108832928567153</v>
+        <v>1.011577192479677</v>
       </c>
       <c r="G7">
-        <v>0.8991494643405957</v>
+        <v>0.7935271422804249</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.006178357950465063</v>
+        <v>0.004362140447613072</v>
       </c>
       <c r="J7">
-        <v>0.6270134061394828</v>
+        <v>0.591191806485881</v>
       </c>
       <c r="K7">
-        <v>0.5748766931700899</v>
+        <v>0.5014010367547357</v>
       </c>
       <c r="L7">
-        <v>0.049068386615569</v>
+        <v>0.2407198983547332</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1432395269976823</v>
       </c>
       <c r="N7">
-        <v>0.269463036156921</v>
+        <v>0.04490551849816882</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9093870562419113</v>
+        <v>0.2847872180552287</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.8876344144299573</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.838832289799541</v>
+        <v>2.678730795452964</v>
       </c>
       <c r="C8">
-        <v>0.4985322294566288</v>
+        <v>0.5329280561867051</v>
       </c>
       <c r="D8">
-        <v>0.02861881366167651</v>
+        <v>0.03235795144994214</v>
       </c>
       <c r="E8">
-        <v>0.03248403218584528</v>
+        <v>0.03116917568726763</v>
       </c>
       <c r="F8">
-        <v>1.191836935243288</v>
+        <v>1.076740697809129</v>
       </c>
       <c r="G8">
-        <v>0.9816663610520067</v>
+        <v>0.8665018421533262</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.003071188586641682</v>
+        <v>0.002280672489247237</v>
       </c>
       <c r="J8">
-        <v>0.657107284105777</v>
+        <v>0.6055551664869228</v>
       </c>
       <c r="K8">
-        <v>0.5919074371604012</v>
+        <v>0.5089233276261922</v>
       </c>
       <c r="L8">
-        <v>0.04804565251973614</v>
+        <v>0.2373604094139772</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1503906266436914</v>
       </c>
       <c r="N8">
-        <v>0.3117273049145126</v>
+        <v>0.04388946383573966</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8651175043147319</v>
+        <v>0.3299882520984454</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.8561630628223824</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.785620907975897</v>
+        <v>3.553760933362184</v>
       </c>
       <c r="C9">
-        <v>0.6690079563747418</v>
+        <v>0.722574677594622</v>
       </c>
       <c r="D9">
-        <v>0.03254359829580267</v>
+        <v>0.03723652604018923</v>
       </c>
       <c r="E9">
-        <v>0.0327693719965465</v>
+        <v>0.03125153363859745</v>
       </c>
       <c r="F9">
-        <v>1.372075465573189</v>
+        <v>1.224387872343371</v>
       </c>
       <c r="G9">
-        <v>1.15971876387384</v>
+        <v>1.010155425438995</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.0006669621327572983</v>
+        <v>0.0008189488061010053</v>
       </c>
       <c r="J9">
-        <v>0.72519469921275</v>
+        <v>0.6633609790399078</v>
       </c>
       <c r="K9">
-        <v>0.6342269166536738</v>
+        <v>0.5330079921297823</v>
       </c>
       <c r="L9">
-        <v>0.04630240806660701</v>
+        <v>0.2328568123542532</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1736668856992267</v>
       </c>
       <c r="N9">
-        <v>0.396898078399758</v>
+        <v>0.0421032871052871</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.7849773166441061</v>
+        <v>0.4215775710966483</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.7997606529075725</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.482241631418788</v>
+        <v>4.180102957091322</v>
       </c>
       <c r="C10">
-        <v>0.798048865631614</v>
+        <v>0.8594729358462985</v>
       </c>
       <c r="D10">
-        <v>0.03563540974318968</v>
+        <v>0.04179980618151546</v>
       </c>
       <c r="E10">
-        <v>0.03307487207764037</v>
+        <v>0.03156568803167481</v>
       </c>
       <c r="F10">
-        <v>1.511963535828627</v>
+        <v>1.327362194216235</v>
       </c>
       <c r="G10">
-        <v>1.297061498139215</v>
+        <v>1.14459719950878</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.001955008161324656</v>
+        <v>0.002085965778616305</v>
       </c>
       <c r="J10">
-        <v>0.7789852321267858</v>
+        <v>0.6664265879342821</v>
       </c>
       <c r="K10">
-        <v>0.6681899531232673</v>
+        <v>0.5476142581803032</v>
       </c>
       <c r="L10">
-        <v>0.04509967676842219</v>
+        <v>0.227285134349124</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1933683122583076</v>
       </c>
       <c r="N10">
-        <v>0.4621339148286836</v>
+        <v>0.04085404135464454</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.7314201469122459</v>
+        <v>0.4907154597065215</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.7665228090640568</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.791819594916888</v>
+        <v>4.433526219836381</v>
       </c>
       <c r="C11">
-        <v>0.8600776469820914</v>
+        <v>0.9134657637274586</v>
       </c>
       <c r="D11">
-        <v>0.03722821137455412</v>
+        <v>0.04539128566268147</v>
       </c>
       <c r="E11">
-        <v>0.03320945971522171</v>
+        <v>0.03199873278743404</v>
       </c>
       <c r="F11">
-        <v>1.572937948735841</v>
+        <v>1.352894763688241</v>
       </c>
       <c r="G11">
-        <v>1.35647825864703</v>
+        <v>1.245001876887073</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.003637664480258707</v>
+        <v>0.003602322385376944</v>
       </c>
       <c r="J11">
-        <v>0.8020209573597015</v>
+        <v>0.6001234366613346</v>
       </c>
       <c r="K11">
-        <v>0.6813209232559245</v>
+        <v>0.5439861822484033</v>
       </c>
       <c r="L11">
-        <v>0.04449060339716127</v>
+        <v>0.220970394774664</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1989331416615912</v>
       </c>
       <c r="N11">
-        <v>0.4932874701154901</v>
+        <v>0.04024827263903497</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.7092728838219529</v>
+        <v>0.5220648471722598</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.7591223987125915</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.913838734446529</v>
+        <v>4.530734386097606</v>
       </c>
       <c r="C12">
-        <v>0.8824209059719124</v>
+        <v>0.9312196206613805</v>
       </c>
       <c r="D12">
-        <v>0.0377595394270358</v>
+        <v>0.04685909670868682</v>
       </c>
       <c r="E12">
-        <v>0.03327927012831111</v>
+        <v>0.03222222956330523</v>
       </c>
       <c r="F12">
-        <v>1.599050588112448</v>
+        <v>1.36286097393733</v>
       </c>
       <c r="G12">
-        <v>1.382086262586398</v>
+        <v>1.291826736657185</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.004200025432811394</v>
+        <v>0.004013651230639681</v>
       </c>
       <c r="J12">
-        <v>0.8123085201079334</v>
+        <v>0.5698586722911756</v>
       </c>
       <c r="K12">
-        <v>0.6882088945660243</v>
+        <v>0.543192312945699</v>
       </c>
       <c r="L12">
-        <v>0.04430926685840575</v>
+        <v>0.218800699478102</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.201342003770705</v>
       </c>
       <c r="N12">
-        <v>0.5047354157105701</v>
+        <v>0.04005681071462952</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.7005548321936814</v>
+        <v>0.5333706672405327</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.7564185349512726</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.888469971028485</v>
+        <v>4.510799626208382</v>
       </c>
       <c r="C13">
-        <v>0.877341019980804</v>
+        <v>0.9271903556389987</v>
       </c>
       <c r="D13">
-        <v>0.03762912815183483</v>
+        <v>0.04651607442171013</v>
       </c>
       <c r="E13">
-        <v>0.03326713506199042</v>
+        <v>0.0321748532497903</v>
       </c>
       <c r="F13">
-        <v>1.593944188516787</v>
+        <v>1.361288179862242</v>
       </c>
       <c r="G13">
-        <v>1.377112303352021</v>
+        <v>1.281972667998389</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.004033227377682636</v>
+        <v>0.003871537735657071</v>
       </c>
       <c r="J13">
-        <v>0.8103625575091087</v>
+        <v>0.5768355101220521</v>
       </c>
       <c r="K13">
-        <v>0.6870722622781784</v>
+        <v>0.5437015477660978</v>
       </c>
       <c r="L13">
-        <v>0.04435732107635992</v>
+        <v>0.2193845869298556</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2009585114497199</v>
       </c>
       <c r="N13">
-        <v>0.5021747394426797</v>
+        <v>0.04010438914917991</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.7023167229908154</v>
+        <v>0.5308500426121583</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.7567790968885362</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.80224409140493</v>
+        <v>4.441951990461519</v>
       </c>
       <c r="C14">
-        <v>0.861801954593858</v>
+        <v>0.9148402619613307</v>
       </c>
       <c r="D14">
-        <v>0.03726512802288795</v>
+        <v>0.04550048351529057</v>
       </c>
       <c r="E14">
-        <v>0.03321643083198023</v>
+        <v>0.03201739120298086</v>
       </c>
       <c r="F14">
-        <v>1.575305510477776</v>
+        <v>1.353961254429095</v>
       </c>
       <c r="G14">
-        <v>1.358814402726864</v>
+        <v>1.24894447844062</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.003663996067693631</v>
+        <v>0.00361291725434576</v>
       </c>
       <c r="J14">
-        <v>0.802981609020577</v>
+        <v>0.5978412044964045</v>
       </c>
       <c r="K14">
-        <v>0.6820346816297587</v>
+        <v>0.5440661508974145</v>
       </c>
       <c r="L14">
-        <v>0.04447950655008803</v>
+        <v>0.220842297071254</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1991890133608223</v>
       </c>
       <c r="N14">
-        <v>0.4941887715265523</v>
+        <v>0.04023521584374468</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.7085065659865606</v>
+        <v>0.5229586677259874</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.7588060470471518</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.747650971765722</v>
+        <v>4.397680930634124</v>
       </c>
       <c r="C15">
-        <v>0.8528171130344901</v>
+        <v>0.907624871467732</v>
       </c>
       <c r="D15">
-        <v>0.03707390993486825</v>
+        <v>0.04493910097914977</v>
       </c>
       <c r="E15">
-        <v>0.03317981840891182</v>
+        <v>0.03192143435202244</v>
       </c>
       <c r="F15">
-        <v>1.562887315624351</v>
+        <v>1.348248937739228</v>
       </c>
       <c r="G15">
-        <v>1.346557293010477</v>
+        <v>1.228539083675003</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.003537880866354648</v>
+        <v>0.003568653046431614</v>
       </c>
       <c r="J15">
-        <v>0.7979381305418087</v>
+        <v>0.6095011472365002</v>
       </c>
       <c r="K15">
-        <v>0.6782737368212679</v>
+        <v>0.5435792743152561</v>
       </c>
       <c r="L15">
-        <v>0.04453676406514706</v>
+        <v>0.2214877845123624</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1978269286406515</v>
       </c>
       <c r="N15">
-        <v>0.4894887849311544</v>
+        <v>0.040303036564314</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.7125314826635325</v>
+        <v>0.5182891416520761</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.7605130859872631</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.446849729590554</v>
+        <v>4.148834109916436</v>
       </c>
       <c r="C16">
-        <v>0.7983295209277799</v>
+        <v>0.8602249413018797</v>
       </c>
       <c r="D16">
-        <v>0.03579235968202354</v>
+        <v>0.0418754689893106</v>
       </c>
       <c r="E16">
-        <v>0.03301575109150345</v>
+        <v>0.03149629098183659</v>
       </c>
       <c r="F16">
-        <v>1.499181618504636</v>
+        <v>1.317373491661897</v>
       </c>
       <c r="G16">
-        <v>1.284005518735</v>
+        <v>1.130381941127595</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.002531512555520088</v>
+        <v>0.002820730364813784</v>
       </c>
       <c r="J16">
-        <v>0.7728983493794317</v>
+        <v>0.6657914580316771</v>
       </c>
       <c r="K16">
-        <v>0.6614845500152242</v>
+        <v>0.5427007891568678</v>
       </c>
       <c r="L16">
-        <v>0.04498697335405222</v>
+        <v>0.2258524372162327</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.190970812894669</v>
       </c>
       <c r="N16">
-        <v>0.4616124094599741</v>
+        <v>0.04078355221958851</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.73460447552619</v>
+        <v>0.4901628690130906</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.7698571694217549</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.262764734576592</v>
+        <v>3.991106927165561</v>
       </c>
       <c r="C17">
-        <v>0.7651229533772153</v>
+        <v>0.828809283017705</v>
       </c>
       <c r="D17">
-        <v>0.03501545901110958</v>
+        <v>0.04030366400557028</v>
       </c>
       <c r="E17">
-        <v>0.0329216251246045</v>
+        <v>0.0313084317589194</v>
       </c>
       <c r="F17">
-        <v>1.460766049853234</v>
+        <v>1.294876683355525</v>
       </c>
       <c r="G17">
-        <v>1.246252349193611</v>
+        <v>1.080266086454074</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.002120115966596003</v>
+        <v>0.002499373677018468</v>
       </c>
       <c r="J17">
-        <v>0.757869144740738</v>
+        <v>0.6873024218790107</v>
       </c>
       <c r="K17">
-        <v>0.6514765518882228</v>
+        <v>0.540593099325541</v>
       </c>
       <c r="L17">
-        <v>0.04526986168516078</v>
+        <v>0.2279557030741728</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.186304313851906</v>
       </c>
       <c r="N17">
-        <v>0.4446726791369429</v>
+        <v>0.04108555486727106</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.7484460382012692</v>
+        <v>0.4727162395003859</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.7770303301984853</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.161605499824191</v>
+        <v>3.902932546325189</v>
       </c>
       <c r="C18">
-        <v>0.7447927324896852</v>
+        <v>0.8085584005812052</v>
       </c>
       <c r="D18">
-        <v>0.03449291045185632</v>
+        <v>0.03941804027012097</v>
       </c>
       <c r="E18">
-        <v>0.03288522353796086</v>
+        <v>0.03123907109221324</v>
       </c>
       <c r="F18">
-        <v>1.441573058203616</v>
+        <v>1.283131141339524</v>
       </c>
       <c r="G18">
-        <v>1.227534329459218</v>
+        <v>1.057374461446386</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.001710328249229676</v>
+        <v>0.002066320930774523</v>
       </c>
       <c r="J18">
-        <v>0.7507318209216294</v>
+        <v>0.6958568368087015</v>
       </c>
       <c r="K18">
-        <v>0.64759279227669</v>
+        <v>0.5403582911234679</v>
       </c>
       <c r="L18">
-        <v>0.04548127171782479</v>
+        <v>0.2295148926256445</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1840636765544694</v>
       </c>
       <c r="N18">
-        <v>0.4345310228413126</v>
+        <v>0.0412951140956368</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.7560040578252547</v>
+        <v>0.4621577287862522</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.7808439068896291</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.123850455712784</v>
+        <v>3.869451115918253</v>
       </c>
       <c r="C19">
-        <v>0.7389285140083075</v>
+        <v>0.8026108905956164</v>
       </c>
       <c r="D19">
-        <v>0.034377466188797</v>
+        <v>0.03920100201428767</v>
       </c>
       <c r="E19">
-        <v>0.03286143017716903</v>
+        <v>0.03120877524191989</v>
       </c>
       <c r="F19">
-        <v>1.433053939424795</v>
+        <v>1.27706088650757</v>
       </c>
       <c r="G19">
-        <v>1.219087504690862</v>
+        <v>1.048235905026701</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.0017696329058845</v>
+        <v>0.002154202505576741</v>
       </c>
       <c r="J19">
-        <v>0.7472619861244993</v>
+        <v>0.6968855245821999</v>
       </c>
       <c r="K19">
-        <v>0.644929139865738</v>
+        <v>0.5390039720653732</v>
       </c>
       <c r="L19">
-        <v>0.04551756023281328</v>
+        <v>0.2295725357632499</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1828221287110452</v>
       </c>
       <c r="N19">
-        <v>0.4314574081480771</v>
+        <v>0.04134047541428032</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.7589752678013006</v>
+        <v>0.4589255113313015</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.7828279517513224</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.282704712543477</v>
+        <v>4.008421951899948</v>
       </c>
       <c r="C20">
-        <v>0.7685473739869053</v>
+        <v>0.8321331629222755</v>
       </c>
       <c r="D20">
-        <v>0.03509161138589434</v>
+        <v>0.04045332598231255</v>
       </c>
       <c r="E20">
-        <v>0.03293260810247745</v>
+        <v>0.03132694388852997</v>
       </c>
       <c r="F20">
-        <v>1.465040724654429</v>
+        <v>1.297593608054001</v>
       </c>
       <c r="G20">
-        <v>1.250466965278008</v>
+        <v>1.085440566523573</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.00213694301359979</v>
+        <v>0.002504758744804825</v>
       </c>
       <c r="J20">
-        <v>0.7595660183200437</v>
+        <v>0.6856335388818167</v>
       </c>
       <c r="K20">
-        <v>0.6526701516569204</v>
+        <v>0.5409952501663184</v>
       </c>
       <c r="L20">
-        <v>0.04524311823852134</v>
+        <v>0.2277974595933685</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1868639943306754</v>
       </c>
       <c r="N20">
-        <v>0.4464343288700405</v>
+        <v>0.04105579205785403</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.7469207477907318</v>
+        <v>0.4745443798105669</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.7761522021568865</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.822400601444372</v>
+        <v>4.449155658239704</v>
       </c>
       <c r="C21">
-        <v>0.8678264426744136</v>
+        <v>0.9158969239516921</v>
       </c>
       <c r="D21">
-        <v>0.03746004911941014</v>
+        <v>0.04635864974086701</v>
       </c>
       <c r="E21">
-        <v>0.03321404457189381</v>
+        <v>0.03215157474125618</v>
       </c>
       <c r="F21">
-        <v>1.577773757940079</v>
+        <v>1.347006916787549</v>
       </c>
       <c r="G21">
-        <v>1.36105708721368</v>
+        <v>1.270613203931731</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.004008395619306881</v>
+        <v>0.0039671767112468</v>
       </c>
       <c r="J21">
-        <v>0.8035856478635708</v>
+        <v>0.5686369732606806</v>
       </c>
       <c r="K21">
-        <v>0.6815263051663152</v>
+        <v>0.53948033056475</v>
       </c>
       <c r="L21">
-        <v>0.04439222903476381</v>
+        <v>0.2188537250259976</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1978805197837659</v>
       </c>
       <c r="N21">
-        <v>0.4970396703848508</v>
+        <v>0.0401619196826255</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.7072864109550778</v>
+        <v>0.5252316854073058</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.7608955490918063</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.183339296260158</v>
+        <v>4.739415246499846</v>
       </c>
       <c r="C22">
-        <v>0.931647255058806</v>
+        <v>0.9675545894262996</v>
       </c>
       <c r="D22">
-        <v>0.03892761373156617</v>
+        <v>0.05046102961497212</v>
       </c>
       <c r="E22">
-        <v>0.03344174952839918</v>
+        <v>0.03280703307989441</v>
       </c>
       <c r="F22">
-        <v>1.657584098148703</v>
+        <v>1.381195456209213</v>
       </c>
       <c r="G22">
-        <v>1.439479796318039</v>
+        <v>1.407706652413594</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.005635676786589272</v>
+        <v>0.005023833185004989</v>
       </c>
       <c r="J22">
-        <v>0.8354897277183113</v>
+        <v>0.4945713019687759</v>
       </c>
       <c r="K22">
-        <v>0.703918781944239</v>
+        <v>0.5399550682417456</v>
       </c>
       <c r="L22">
-        <v>0.04392360419355512</v>
+        <v>0.2135503861229751</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2061463164880664</v>
       </c>
       <c r="N22">
-        <v>0.5300344751970982</v>
+        <v>0.03965121507046909</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.6816381653958778</v>
+        <v>0.557948052090623</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.7521734090964856</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.996766190809183</v>
+        <v>4.596426590684644</v>
       </c>
       <c r="C23">
-        <v>0.8957401622677708</v>
+        <v>0.9411260218187465</v>
       </c>
       <c r="D23">
-        <v>0.03803516876016033</v>
+        <v>0.04778592631747358</v>
       </c>
       <c r="E23">
-        <v>0.03333886940325659</v>
+        <v>0.0323930874500542</v>
       </c>
       <c r="F23">
-        <v>1.618377381972437</v>
+        <v>1.370793352803886</v>
       </c>
       <c r="G23">
-        <v>1.401179918492915</v>
+        <v>1.326276809293404</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.00442969355307099</v>
+        <v>0.004090387140733398</v>
       </c>
       <c r="J23">
-        <v>0.8202311034505101</v>
+        <v>0.5497213937021286</v>
       </c>
       <c r="K23">
-        <v>0.6942636090980443</v>
+        <v>0.5437176741728038</v>
       </c>
       <c r="L23">
-        <v>0.04423349730770099</v>
+        <v>0.21776065825944</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2033452097201547</v>
       </c>
       <c r="N23">
-        <v>0.5117573256595591</v>
+        <v>0.03996372878457066</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.6945008640696813</v>
+        <v>0.5402373108594531</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.7541477852900869</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.283389644793772</v>
+        <v>4.009749512947963</v>
       </c>
       <c r="C24">
-        <v>0.7642357356859861</v>
+        <v>0.8277637075464099</v>
       </c>
       <c r="D24">
-        <v>0.03489019612176136</v>
+        <v>0.04020424333149464</v>
       </c>
       <c r="E24">
-        <v>0.0329602025867537</v>
+        <v>0.03134837913170063</v>
       </c>
       <c r="F24">
-        <v>1.468765750881786</v>
+        <v>1.301535259920229</v>
       </c>
       <c r="G24">
-        <v>1.254455515954874</v>
+        <v>1.088459800401537</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.001652941850650791</v>
+        <v>0.001921631320640493</v>
       </c>
       <c r="J24">
-        <v>0.7617453325340193</v>
+        <v>0.6890559314632725</v>
       </c>
       <c r="K24">
-        <v>0.6558832493573235</v>
+        <v>0.5440525983343321</v>
       </c>
       <c r="L24">
-        <v>0.04535324698503107</v>
+        <v>0.2290479769596736</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1878780334691967</v>
       </c>
       <c r="N24">
-        <v>0.4446755694723237</v>
+        <v>0.04114036661401599</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.7465250157840799</v>
+        <v>0.4727487952122118</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.7748445168864677</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.51972121479406</v>
+        <v>3.311657873885224</v>
       </c>
       <c r="C25">
-        <v>0.6250804011663433</v>
+        <v>0.6750757844899908</v>
       </c>
       <c r="D25">
-        <v>0.03161579082989974</v>
+        <v>0.03588474846104717</v>
       </c>
       <c r="E25">
-        <v>0.03264263376039267</v>
+        <v>0.03114435614421573</v>
       </c>
       <c r="F25">
-        <v>1.316389411925627</v>
+        <v>1.180926194343044</v>
       </c>
       <c r="G25">
-        <v>1.104551774499726</v>
+        <v>0.9594020692979512</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.001264202381431545</v>
+        <v>0.001357740854641243</v>
       </c>
       <c r="J25">
-        <v>0.7031767659782844</v>
+        <v>0.6548165287229324</v>
       </c>
       <c r="K25">
-        <v>0.6185010369500645</v>
+        <v>0.5240551579940202</v>
       </c>
       <c r="L25">
-        <v>0.04665886540255926</v>
+        <v>0.2333360810075433</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1658056262493055</v>
       </c>
       <c r="N25">
-        <v>0.3744006845522705</v>
+        <v>0.04250038875175033</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8067540807717108</v>
+        <v>0.3975442840423824</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8150883171483372</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
